--- a/excel/test_2.xlsx
+++ b/excel/test_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin Data\PycharmProjects\pythonProject1\github\venv\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED898FD2-DCCE-441B-8BF1-01C87E5508EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAB3E92-CB6C-470D-9675-0F1F2FD0D480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="153">
   <si>
     <t>STT</t>
   </si>
@@ -340,6 +340,150 @@
   </si>
   <si>
     <t>103 Cửu Việt 2, T.T Châu Quỳ, TT. Trâu Quỳ</t>
+  </si>
+  <si>
+    <t>Bánh Bao - Quán Thánh</t>
+  </si>
+  <si>
+    <t>146 Quán Thánh, Quận Ba Đình, Hà Nội</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps?q=21.0425543,105.8414364</t>
+  </si>
+  <si>
+    <t>60a393ce0309c615cc1d3fef</t>
+  </si>
+  <si>
+    <t>Chè Bà Thơm - Quán Thánh</t>
+  </si>
+  <si>
+    <t>146 Quán Thánh, Phường Ba Đình, Thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>146 Quán Thánh</t>
+  </si>
+  <si>
+    <t>Trùng địa chỉ</t>
+  </si>
+  <si>
+    <t>Gà 36 - Linh Đàm</t>
+  </si>
+  <si>
+    <t>36 Nguyễn Hữu Thọ (đường đôi Linh Đàm), P. Hoàng Liệt, Quận Hoàng Mai, Hà Nội</t>
+  </si>
+  <si>
+    <t>(024) 3641 3950</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps?q=20.971149,105.83682</t>
+  </si>
+  <si>
+    <t>60a393de0309c615cc1d5791</t>
+  </si>
+  <si>
+    <t>đường đôi Linh Đàm, 36 Nguyễn Hữu Thọ, Phường Định Công, Thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>36 Nguyễn Hữu Thọ (đường đôi Linh Đàm)</t>
+  </si>
+  <si>
+    <t>Gugsumi - Cơm Gà Đúng Điệu - Trần Quốc Vượng</t>
+  </si>
+  <si>
+    <t>91 Trần Quốc Vượng, P. Dịch Vọng Hậu, Quận Cầu Giấy, Hà Nội</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps?q=21.0346173,105.7842748</t>
+  </si>
+  <si>
+    <t>677ba514d82fc8a2666fae21</t>
+  </si>
+  <si>
+    <t>Hương Vị Xứ Thanh - Trần Quốc Vượng</t>
+  </si>
+  <si>
+    <t>Phường Cầu Giấy, Thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>91 Trần Quốc Vượng, P. Dịch Vọng Hậu</t>
+  </si>
+  <si>
+    <t>Trà Sữa Tocotoco - Ngô Gia Tự</t>
+  </si>
+  <si>
+    <t>176 Ngô Gia Tự, P. Đức Giang, Quận Long Biên, Hà Nội</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps?q=21.06073,105.893518</t>
+  </si>
+  <si>
+    <t>60a393e00309c615cc1d5b6e</t>
+  </si>
+  <si>
+    <t>176 Ngô Gia Tự, Phường Việt Hưng, Thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>176 Ngô Gia Tự</t>
+  </si>
+  <si>
+    <t>Hibi's Cake - Ngọc Lâm</t>
+  </si>
+  <si>
+    <t>47 Ngọc Lâm, P. Ngọc Lâm, Quận Long Biên, Hà Nội</t>
+  </si>
+  <si>
+    <t>0963 746 349</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps?q=21.044653,105.867827</t>
+  </si>
+  <si>
+    <t>677b3b00d82fc8a2666f6ae3</t>
+  </si>
+  <si>
+    <t>Phường Bồ Đề, Thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>47 Ngọc Lâm, P. Ngọc Lâm</t>
+  </si>
+  <si>
+    <t>Bún Chả Ngọc Xuân</t>
+  </si>
+  <si>
+    <t>102 Thụy Khuê, P. Thụy Khuê, Quận Tây Hồ, Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(024) 38 470 371 </t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps?q=21.041886,105.825763</t>
+  </si>
+  <si>
+    <t>60a393e20309c615cc1d5e34</t>
+  </si>
+  <si>
+    <t>102 Thụy Khuê, Phường Tây Hồ, Thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>102 Thụy Khuê</t>
+  </si>
+  <si>
+    <t>Tun Tun - Bún Hải Sản Hoa Quả</t>
+  </si>
+  <si>
+    <t>25 Bùi Ngọc Dương, P. Bạch Mai, Quận Hai Bà Trưng, Hà Nội</t>
+  </si>
+  <si>
+    <t>0986 208 784</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps?q=21.001462,105.854356</t>
+  </si>
+  <si>
+    <t>677b390fd82fc8a2666f67da</t>
+  </si>
+  <si>
+    <t>25 Bùi Ngọc Dương, P. Bạch Mai</t>
   </si>
 </sst>
 </file>
@@ -694,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:U100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,92 +1162,473 @@
         <v>100</v>
       </c>
     </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>6.5759999999999996</v>
+      </c>
+      <c r="F6">
+        <v>21.042554299999999</v>
+      </c>
+      <c r="G6">
+        <v>105.84143640000001</v>
+      </c>
+      <c r="H6">
+        <v>1140.742972050472</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N6" t="s">
+        <v>110</v>
+      </c>
+      <c r="O6" t="s">
+        <v>111</v>
+      </c>
+      <c r="P6">
+        <v>21.042560999999999</v>
+      </c>
+      <c r="Q6">
+        <v>105.8414829999999</v>
+      </c>
+      <c r="R6" t="s">
+        <v>112</v>
+      </c>
+      <c r="S6">
+        <v>100</v>
+      </c>
+      <c r="T6">
+        <v>78.048780487804876</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>7.1280000000000001</v>
+      </c>
+      <c r="F7">
+        <v>21.019514000000001</v>
+      </c>
+      <c r="G7">
+        <v>105.787171</v>
+      </c>
+      <c r="H7">
+        <v>1138.6294832015139</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7">
+        <v>21.019514000000001</v>
+      </c>
+      <c r="Q7">
+        <v>105.787171</v>
+      </c>
+      <c r="R7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7">
+        <v>100</v>
+      </c>
+      <c r="T7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8">
+        <v>5.54</v>
+      </c>
+      <c r="F8">
+        <v>20.971149</v>
+      </c>
+      <c r="G8">
+        <v>105.83682</v>
+      </c>
+      <c r="H8">
+        <v>1132.8540678108361</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" t="s">
+        <v>118</v>
+      </c>
+      <c r="O8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P8">
+        <v>20.971149</v>
+      </c>
+      <c r="Q8">
+        <v>105.83682</v>
+      </c>
+      <c r="R8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8">
+        <v>100</v>
+      </c>
+      <c r="T8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>6.56</v>
+      </c>
+      <c r="F9">
+        <v>21.034617300000001</v>
+      </c>
+      <c r="G9">
+        <v>105.78427480000001</v>
+      </c>
+      <c r="H9">
+        <v>1140.32969947577</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9" t="s">
+        <v>124</v>
+      </c>
+      <c r="N9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O9" t="s">
+        <v>126</v>
+      </c>
+      <c r="P9">
+        <v>21.034617300000001</v>
+      </c>
+      <c r="Q9">
+        <v>105.78427480000001</v>
+      </c>
+      <c r="R9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9">
+        <v>40</v>
+      </c>
+      <c r="T9">
+        <v>63.013698630136993</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10">
+        <v>6.1139999999999999</v>
+      </c>
+      <c r="F10">
+        <v>21.041419999999999</v>
+      </c>
+      <c r="G10">
+        <v>105.87420299999999</v>
+      </c>
+      <c r="H10">
+        <v>1140.363813559793</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10">
+        <v>21.041406800000001</v>
+      </c>
+      <c r="Q10">
+        <v>105.8741382</v>
+      </c>
+      <c r="R10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10">
+        <v>40</v>
+      </c>
+      <c r="T10">
+        <v>75</v>
+      </c>
+      <c r="U10">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="E10">
-        <v>7.1280000000000001</v>
-      </c>
-      <c r="F10">
-        <v>21.019514000000001</v>
-      </c>
-      <c r="G10">
-        <v>105.787171</v>
-      </c>
-      <c r="H10">
-        <v>1138.6294832015139</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" t="s">
-        <v>54</v>
-      </c>
-      <c r="O10" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10">
-        <v>21.019514000000001</v>
-      </c>
-      <c r="Q10">
-        <v>105.787171</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="E11">
+        <v>5.72</v>
+      </c>
+      <c r="F11">
+        <v>21.006352</v>
+      </c>
+      <c r="G11">
+        <v>105.819244</v>
+      </c>
+      <c r="H11">
+        <v>1136.902859622006</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11">
+        <v>21.006352</v>
+      </c>
+      <c r="Q11">
+        <v>105.819244</v>
+      </c>
+      <c r="R11" t="s">
         <v>37</v>
       </c>
-      <c r="S10">
+      <c r="S11">
         <v>100</v>
       </c>
-      <c r="T10">
+      <c r="T11">
         <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>7.202</v>
+      </c>
+      <c r="F12">
+        <v>21.010791399999999</v>
+      </c>
+      <c r="G12">
+        <v>105.8182358</v>
+      </c>
+      <c r="H12">
+        <v>1137.4037451091569</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12">
+        <v>21.010777999999998</v>
+      </c>
+      <c r="Q12">
+        <v>105.81825000000001</v>
+      </c>
+      <c r="R12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12">
+        <v>40</v>
+      </c>
+      <c r="T12">
+        <v>56</v>
+      </c>
+      <c r="U12">
+        <v>2.09</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>6.1139999999999999</v>
+        <v>6.1840000000000002</v>
       </c>
       <c r="F13">
-        <v>21.041419999999999</v>
+        <v>21.06073</v>
       </c>
       <c r="G13">
-        <v>105.87420299999999</v>
+        <v>105.893518</v>
       </c>
       <c r="H13">
-        <v>1140.363813559793</v>
+        <v>1142.3637167264781</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -1112,63 +1637,60 @@
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="M13" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="N13" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="P13">
-        <v>21.041406800000001</v>
+        <v>21.06073</v>
       </c>
       <c r="Q13">
-        <v>105.8741382</v>
+        <v>105.893518</v>
       </c>
       <c r="R13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S13">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="T13">
-        <v>75</v>
-      </c>
-      <c r="U13">
-        <v>6.89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="E14">
-        <v>5.72</v>
+        <v>7.8</v>
       </c>
       <c r="F14">
-        <v>21.006352</v>
+        <v>21.044653</v>
       </c>
       <c r="G14">
-        <v>105.819244</v>
+        <v>105.86782700000001</v>
       </c>
       <c r="H14">
-        <v>1136.902859622006</v>
+        <v>1140.7711814374529</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -1177,25 +1699,25 @@
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="N14" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="O14" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="P14">
-        <v>21.006352</v>
+        <v>21.044653</v>
       </c>
       <c r="Q14">
-        <v>105.819244</v>
+        <v>105.86782700000001</v>
       </c>
       <c r="R14" t="s">
         <v>37</v>
@@ -1209,28 +1731,28 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>7.202</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>21.010791399999999</v>
+        <v>20.984513199999999</v>
       </c>
       <c r="G15">
-        <v>105.8182358</v>
+        <v>105.76991099999999</v>
       </c>
       <c r="H15">
-        <v>1137.4037451091569</v>
+        <v>1134.894036921449</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -1239,25 +1761,25 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L15" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="M15" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="N15" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="O15" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="P15">
-        <v>21.010777999999998</v>
+        <v>20.984563600000001</v>
       </c>
       <c r="Q15">
-        <v>105.81825000000001</v>
+        <v>105.77005370000001</v>
       </c>
       <c r="R15" t="s">
         <v>29</v>
@@ -1266,36 +1788,101 @@
         <v>40</v>
       </c>
       <c r="T15">
-        <v>56</v>
+        <v>37.837837837837839</v>
       </c>
       <c r="U15">
-        <v>2.09</v>
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16">
+        <v>6.4580000000000002</v>
+      </c>
+      <c r="F16">
+        <v>20.993320300000001</v>
+      </c>
+      <c r="G16">
+        <v>105.8628999</v>
+      </c>
+      <c r="H16">
+        <v>1135.1102241417809</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" t="s">
+        <v>89</v>
+      </c>
+      <c r="N16" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16">
+        <v>20.993281100000001</v>
+      </c>
+      <c r="Q16">
+        <v>105.8628993</v>
+      </c>
+      <c r="R16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16">
+        <v>40</v>
+      </c>
+      <c r="T16">
+        <v>26.666666666666671</v>
+      </c>
+      <c r="U16">
+        <v>4.34</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>7.95</v>
       </c>
       <c r="F17">
-        <v>20.984513199999999</v>
+        <v>21.030922</v>
       </c>
       <c r="G17">
-        <v>105.76991099999999</v>
+        <v>105.848192</v>
       </c>
       <c r="H17">
-        <v>1134.894036921449</v>
+        <v>1139.398663705796</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -1304,25 +1891,25 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="M17" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="N17" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="O17" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="P17">
-        <v>20.984563600000001</v>
+        <v>21.030925</v>
       </c>
       <c r="Q17">
-        <v>105.77005370000001</v>
+        <v>105.848203</v>
       </c>
       <c r="R17" t="s">
         <v>29</v>
@@ -1331,36 +1918,36 @@
         <v>40</v>
       </c>
       <c r="T17">
-        <v>37.837837837837839</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="U17">
-        <v>15.85</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="E18">
-        <v>6.4580000000000002</v>
+        <v>6.9080000000000004</v>
       </c>
       <c r="F18">
-        <v>20.993320300000001</v>
+        <v>21.041886000000002</v>
       </c>
       <c r="G18">
-        <v>105.8628999</v>
+        <v>105.82576299999999</v>
       </c>
       <c r="H18">
-        <v>1135.1102241417809</v>
+        <v>1140.79370618848</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -1369,63 +1956,60 @@
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="L18" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="M18" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="N18" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="O18" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="P18">
-        <v>20.993281100000001</v>
+        <v>21.041886000000002</v>
       </c>
       <c r="Q18">
-        <v>105.8628993</v>
+        <v>105.82576299999999</v>
       </c>
       <c r="R18" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S18">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="T18">
-        <v>26.666666666666671</v>
-      </c>
-      <c r="U18">
-        <v>4.34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
       </c>
       <c r="E19">
-        <v>7.95</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F19">
-        <v>21.030922</v>
+        <v>21.008881899999999</v>
       </c>
       <c r="G19">
-        <v>105.848192</v>
+        <v>105.9376999</v>
       </c>
       <c r="H19">
-        <v>1139.398663705796</v>
+        <v>1136.289465983232</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -1434,367 +2018,359 @@
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L19" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N19" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O19" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P19">
-        <v>21.030925</v>
+        <v>21.008881899999999</v>
       </c>
       <c r="Q19">
-        <v>105.848203</v>
+        <v>105.9376999</v>
       </c>
       <c r="R19" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S19">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="T19">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="U19">
-        <v>1.19</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20">
+        <v>8.06</v>
+      </c>
+      <c r="F20">
+        <v>21.001462</v>
+      </c>
+      <c r="G20">
+        <v>105.854356</v>
+      </c>
+      <c r="H20">
+        <v>1136.080297322437</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L20" t="s">
+        <v>151</v>
+      </c>
+      <c r="M20" t="s">
+        <v>147</v>
+      </c>
+      <c r="N20" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" t="s">
+        <v>152</v>
+      </c>
+      <c r="P20">
+        <v>21.001462</v>
+      </c>
+      <c r="Q20">
+        <v>105.854356</v>
+      </c>
+      <c r="R20" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20">
+        <v>100</v>
+      </c>
+      <c r="T20">
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F21">
-        <v>21.008881899999999</v>
-      </c>
-      <c r="G21">
-        <v>105.9376999</v>
-      </c>
-      <c r="H21">
-        <v>1136.289465983232</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L21" t="s">
-        <v>102</v>
-      </c>
-      <c r="M21" t="s">
-        <v>99</v>
-      </c>
-      <c r="N21" t="s">
-        <v>103</v>
-      </c>
-      <c r="O21" t="s">
-        <v>104</v>
-      </c>
-      <c r="P21">
-        <v>21.008881899999999</v>
-      </c>
-      <c r="Q21">
-        <v>105.9376999</v>
-      </c>
-      <c r="R21" t="s">
-        <v>37</v>
-      </c>
-      <c r="S21">
-        <v>100</v>
-      </c>
-      <c r="T21">
-        <v>100</v>
-      </c>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>18</v>
-      </c>
-      <c r="B25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F25">
-        <v>21.008881899999999</v>
-      </c>
-      <c r="G25">
-        <v>105.9376999</v>
-      </c>
-      <c r="H25">
-        <v>1136.289465983232</v>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="b">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L25" t="s">
-        <v>102</v>
-      </c>
-      <c r="M25" t="s">
-        <v>99</v>
-      </c>
-      <c r="N25" t="s">
-        <v>103</v>
-      </c>
-      <c r="O25" t="s">
-        <v>104</v>
-      </c>
-      <c r="P25">
-        <v>21.008881899999999</v>
-      </c>
-      <c r="Q25">
-        <v>105.9376999</v>
-      </c>
-      <c r="R25" t="s">
-        <v>37</v>
-      </c>
-      <c r="S25">
-        <v>100</v>
-      </c>
-      <c r="T25">
-        <v>100</v>
-      </c>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>18</v>
-      </c>
-      <c r="B27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F27">
-        <v>21.008881899999999</v>
-      </c>
-      <c r="G27">
-        <v>105.9376999</v>
-      </c>
-      <c r="H27">
-        <v>1136.289465983232</v>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="b">
-        <v>1</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L27" t="s">
-        <v>102</v>
-      </c>
-      <c r="M27" t="s">
-        <v>99</v>
-      </c>
-      <c r="N27" t="s">
-        <v>103</v>
-      </c>
-      <c r="O27" t="s">
-        <v>104</v>
-      </c>
-      <c r="P27">
-        <v>21.008881899999999</v>
-      </c>
-      <c r="Q27">
-        <v>105.9376999</v>
-      </c>
-      <c r="R27" t="s">
-        <v>37</v>
-      </c>
-      <c r="S27">
-        <v>100</v>
-      </c>
-      <c r="T27">
-        <v>100</v>
-      </c>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>18</v>
-      </c>
-      <c r="B29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F29">
-        <v>21.008881899999999</v>
-      </c>
-      <c r="G29">
-        <v>105.9376999</v>
-      </c>
-      <c r="H29">
-        <v>1136.289465983232</v>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L29" t="s">
-        <v>102</v>
-      </c>
-      <c r="M29" t="s">
-        <v>99</v>
-      </c>
-      <c r="N29" t="s">
-        <v>103</v>
-      </c>
-      <c r="O29" t="s">
-        <v>104</v>
-      </c>
-      <c r="P29">
-        <v>21.008881899999999</v>
-      </c>
-      <c r="Q29">
-        <v>105.9376999</v>
-      </c>
-      <c r="R29" t="s">
-        <v>37</v>
-      </c>
-      <c r="S29">
-        <v>100</v>
-      </c>
-      <c r="T29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>18</v>
-      </c>
-      <c r="B33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F33">
-        <v>21.008881899999999</v>
-      </c>
-      <c r="G33">
-        <v>105.9376999</v>
-      </c>
-      <c r="H33">
-        <v>1136.289465983232</v>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L33" t="s">
-        <v>102</v>
-      </c>
-      <c r="M33" t="s">
-        <v>99</v>
-      </c>
-      <c r="N33" t="s">
-        <v>103</v>
-      </c>
-      <c r="O33" t="s">
-        <v>104</v>
-      </c>
-      <c r="P33">
-        <v>21.008881899999999</v>
-      </c>
-      <c r="Q33">
-        <v>105.9376999</v>
-      </c>
-      <c r="R33" t="s">
-        <v>37</v>
-      </c>
-      <c r="S33">
-        <v>100</v>
-      </c>
-      <c r="T33">
-        <v>100</v>
-      </c>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K82" s="2"/>
+    </row>
+    <row r="83" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K83" s="2"/>
+    </row>
+    <row r="84" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K84" s="2"/>
+    </row>
+    <row r="85" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K85" s="2"/>
+    </row>
+    <row r="86" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K86" s="2"/>
+    </row>
+    <row r="87" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K87" s="2"/>
+    </row>
+    <row r="88" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K88" s="2"/>
+    </row>
+    <row r="89" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K89" s="2"/>
+    </row>
+    <row r="90" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K91" s="2"/>
+    </row>
+    <row r="92" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K92" s="2"/>
+    </row>
+    <row r="93" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K93" s="2"/>
+    </row>
+    <row r="94" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K94" s="2"/>
+    </row>
+    <row r="95" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K95" s="2"/>
+    </row>
+    <row r="96" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K96" s="2"/>
+    </row>
+    <row r="97" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K97" s="2"/>
+    </row>
+    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K98" s="2"/>
+    </row>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K99" s="2"/>
+    </row>
+    <row r="100" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K100" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{D78FA37C-0AE4-4C7C-8410-60BEB08BD454}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{65A5B48E-617A-49E7-A97F-D9DE633B6432}"/>
-    <hyperlink ref="K4" r:id="rId3" xr:uid="{0BE521DD-8D94-4B4D-AD18-307B942F2E4F}"/>
-    <hyperlink ref="K5" r:id="rId4" xr:uid="{3B0F5244-050F-4A33-B4C4-476C906D5A00}"/>
-    <hyperlink ref="K10" r:id="rId5" xr:uid="{F66D9658-068B-43CF-8CB0-B5AD0196E2EC}"/>
-    <hyperlink ref="K13" r:id="rId6" xr:uid="{9DF7D326-F5A0-41A0-AF3E-9F06F23FE4CD}"/>
-    <hyperlink ref="K14" r:id="rId7" xr:uid="{52BA8F9B-5F22-4722-987A-5227E71A27DD}"/>
-    <hyperlink ref="K15" r:id="rId8" xr:uid="{931CADB1-78F2-417A-9DF3-5E94F6CA0A41}"/>
-    <hyperlink ref="K17" r:id="rId9" xr:uid="{B63235BD-12F0-4969-A3E8-B6EAE59EF4B6}"/>
-    <hyperlink ref="K18" r:id="rId10" xr:uid="{1F60B1AE-7CD7-46B6-A97B-B45954F9C107}"/>
-    <hyperlink ref="K19" r:id="rId11" xr:uid="{497A6133-473D-4442-9CC6-79DD802286C9}"/>
-    <hyperlink ref="K21" r:id="rId12" xr:uid="{3EE817B7-6A4A-429F-A9F9-BA211AFE3C3F}"/>
-    <hyperlink ref="K25" r:id="rId13" xr:uid="{33C7ADEE-29A7-49B1-BAF4-AAFE64E56D04}"/>
-    <hyperlink ref="K27" r:id="rId14" xr:uid="{F8822FAE-6749-4025-8FE8-B84858208812}"/>
-    <hyperlink ref="K29" r:id="rId15" xr:uid="{706C7FAC-D98F-4576-8142-7FADFCF24DB5}"/>
-    <hyperlink ref="K33" r:id="rId16" xr:uid="{C1B85688-1FD1-47A1-9744-1B314596EC09}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{4E831E7E-409C-4B3A-ACA7-E6B1C33191FD}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{1B48A6A3-2CE7-4B35-967C-CC47939F22E9}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{8544E49B-E20B-47B4-BB2D-54B5F2E21121}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{D6A54C56-2F83-443D-B40D-4807344030F1}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{79900389-7C09-4232-9908-75A958839D78}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{78E1ECA5-26D3-40BC-979B-674642FDB9CE}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{C73066CF-8886-4E18-ABDA-DE982BB3D544}"/>
+    <hyperlink ref="K9" r:id="rId8" xr:uid="{D0636854-B7B6-4119-8868-30C0E00B2A3B}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{33655B97-77E3-4E1A-A085-A0CD7F0A1CE9}"/>
+    <hyperlink ref="K11" r:id="rId10" xr:uid="{EE1A4D20-C782-44E3-A382-0E7A213A0576}"/>
+    <hyperlink ref="K12" r:id="rId11" xr:uid="{A49C132E-0EF2-4805-B3E1-97B56D1CFEB7}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{5FCFBD80-5253-40F9-821B-CEF5ED42D067}"/>
+    <hyperlink ref="K14" r:id="rId13" xr:uid="{A1E6E8E9-DA78-4D8D-8588-6603D9707E0D}"/>
+    <hyperlink ref="K15" r:id="rId14" xr:uid="{CFA549FB-3CF1-495F-932E-D2792072164F}"/>
+    <hyperlink ref="K16" r:id="rId15" xr:uid="{F67AD797-B179-49FA-8F8F-EB33784C38C1}"/>
+    <hyperlink ref="K17" r:id="rId16" xr:uid="{B9877D40-AC68-4C12-BCBD-9FA1700138EB}"/>
+    <hyperlink ref="K18" r:id="rId17" xr:uid="{D7C4A0A3-7C33-4376-B5E0-5778169C535C}"/>
+    <hyperlink ref="K19" r:id="rId18" xr:uid="{8277329F-C545-4D86-9E9A-1344B92A6616}"/>
+    <hyperlink ref="K20" r:id="rId19" xr:uid="{B7607BC1-9955-418F-BE90-1E70EE710D4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
